--- a/docs/mcode/shr-core-TimePeriod-extension.xlsx
+++ b/docs/mcode/shr-core-TimePeriod-extension.xlsx
@@ -138,7 +138,7 @@
   </si>
   <si>
     <t>A period of time defined by a start and end time, date, or year.
-If the start element is missing, the start of the period is not known. If the end element is missing, it means that the period is ongoing, or the start may be in the past, and the end date in the future, which means that period is expected/planned to end at the specified time. The end value includes any matching date/time. For example, the period 2011-05-23 to 2011-05-27 includes all the times from the start of the 23rd May through to the end of the 27th of May.</t>
+If the start date/time is missing, the start of the period is not known. If the end date/time is missing, it means that the period is ongoing.</t>
   </si>
   <si>
     <t>1</t>
